--- a/Myfile-decrypted.xlsx
+++ b/Myfile-decrypted.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27004"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27016"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41551E56-938C-4221-920B-D8B6E91F037B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3901FBB7-D9AE-48FA-A095-E8D17291E539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1398,8 +1398,8 @@
   </sheetPr>
   <dimension ref="A1:BJ499"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3:Y1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="AN1" sqref="AN1:BG1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1434,21 +1434,21 @@
     <col min="36" max="36" width="4.140625" style="79" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="4" style="79" bestFit="1" customWidth="1"/>
     <col min="38" max="39" width="3.7109375" style="79" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="12.42578125" style="82" customWidth="1"/>
-    <col min="41" max="41" width="12.42578125" style="83" customWidth="1"/>
-    <col min="42" max="42" width="12.42578125" style="82" customWidth="1"/>
-    <col min="43" max="43" width="12.42578125" style="83" customWidth="1"/>
-    <col min="44" max="45" width="12.42578125" style="80" customWidth="1"/>
-    <col min="46" max="46" width="12.42578125" style="83" customWidth="1"/>
-    <col min="47" max="48" width="12.42578125" style="80" customWidth="1"/>
-    <col min="49" max="52" width="12.42578125" style="83" customWidth="1"/>
-    <col min="53" max="53" width="12.42578125" style="82" customWidth="1"/>
-    <col min="54" max="54" width="12.42578125" style="83" customWidth="1"/>
-    <col min="55" max="55" width="12.42578125" style="82" customWidth="1"/>
-    <col min="56" max="56" width="12.42578125" style="83" customWidth="1"/>
-    <col min="57" max="57" width="12.42578125" style="82" customWidth="1"/>
-    <col min="58" max="58" width="12.42578125" style="83" customWidth="1"/>
-    <col min="59" max="59" width="12.42578125" style="77" customWidth="1"/>
+    <col min="40" max="40" width="12.42578125" style="82" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="12.42578125" style="83" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="12.42578125" style="82" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="12.42578125" style="83" hidden="1" customWidth="1"/>
+    <col min="44" max="45" width="12.42578125" style="80" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="12.42578125" style="83" hidden="1" customWidth="1"/>
+    <col min="47" max="48" width="12.42578125" style="80" hidden="1" customWidth="1"/>
+    <col min="49" max="52" width="12.42578125" style="83" hidden="1" customWidth="1"/>
+    <col min="53" max="53" width="12.42578125" style="82" hidden="1" customWidth="1"/>
+    <col min="54" max="54" width="12.42578125" style="83" hidden="1" customWidth="1"/>
+    <col min="55" max="55" width="12.42578125" style="82" hidden="1" customWidth="1"/>
+    <col min="56" max="56" width="12.42578125" style="83" hidden="1" customWidth="1"/>
+    <col min="57" max="57" width="12.42578125" style="82" hidden="1" customWidth="1"/>
+    <col min="58" max="58" width="12.42578125" style="83" hidden="1" customWidth="1"/>
+    <col min="59" max="59" width="12.42578125" style="77" hidden="1" customWidth="1"/>
     <col min="60" max="61" width="7.28515625" style="79" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
